--- a/Data for project.xlsx
+++ b/Data for project.xlsx
@@ -2,23 +2,42 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32EAB891-3E24-4F1C-A975-913339D8C328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861E7527-C534-45CF-8E58-F6576C0C02BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BC5C8B96-D16E-438F-94D7-D65BC8FDFE5F}"/>
+    <workbookView minimized="1" xWindow="3030" yWindow="3030" windowWidth="15375" windowHeight="7875" activeTab="5" xr2:uid="{BC5C8B96-D16E-438F-94D7-D65BC8FDFE5F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="A 01" sheetId="2" r:id="rId1"/>
+    <sheet name="A02" sheetId="3" r:id="rId2"/>
+    <sheet name="A 03" sheetId="4" r:id="rId3"/>
+    <sheet name="A 04" sheetId="5" r:id="rId4"/>
+    <sheet name="A 05" sheetId="6" r:id="rId5"/>
+    <sheet name="Data" sheetId="1" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlcn.WorksheetConnection_Sheet1A1F101" hidden="1">Data!$A$1:$F$101</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Range" name="Range" connection="WorksheetConnection_Sheet1!$A$1:$F$101"/>
+        </x15:modelTables>
+      </x15:dataModel>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,8 +52,31 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{3279FDA5-FDB3-466D-891B-9DB866369AC1}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="7" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" xr16:uid="{AED798ED-68DF-4766-B1E3-4E6031AA857A}" name="WorksheetConnection_Sheet1!$A$1:$F$101" type="102" refreshedVersion="7" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Range" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet1A1F101"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -352,6 +394,30 @@
   </si>
   <si>
     <t>Consumer Price Index</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Max of Inflation Rate (%)</t>
+  </si>
+  <si>
+    <t>Min of Inflation Rate (%)</t>
+  </si>
+  <si>
+    <t>Average of Monthly Spending ($)</t>
+  </si>
+  <si>
+    <t>Sum of Consumer Price Index</t>
+  </si>
+  <si>
+    <t>Average of Savings ($)</t>
+  </si>
+  <si>
+    <t>Sum of Monthly Spending ($)</t>
   </si>
 </sst>
 </file>
@@ -387,8 +453,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,6 +475,7697 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Data for project.xlsx]A 01!PivotTable1</c:name>
+    <c:fmtId val="8"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A 01'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'A 01'!$A$4:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2016-07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017-07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021-07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023-07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2024-07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'A 01'!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C5D-4882-BA76-3C0A7BD31FAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="319775023"/>
+        <c:axId val="319780431"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="319775023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="319780431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="319780431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="319775023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Data for project.xlsx]A02!PivotTable2</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A02'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'A02'!$A$4:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2016-07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017-07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021-07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023-07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2024-07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'A02'!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3893-4656-9E2D-4850053CFDC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="319783759"/>
+        <c:axId val="319859167"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="319783759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="319859167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="319859167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="319783759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Data for project.xlsx]A 03!PivotTable1</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A 03'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'A 03'!$A$4:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'A 03'!$B$4:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B024-4EC9-A383-CB5275992597}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="264677136"/>
+        <c:axId val="264667984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="264677136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="264667984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="264667984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="264677136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Data for project.xlsx]A 04!PivotTable2</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A 04'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Savings ($)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'A 04'!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'A 04'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1B1-4661-A3B4-5DAE4CBF14A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A 04'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Consumer Price Index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'A 04'!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'A 04'!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1B1-4661-A3B4-5DAE4CBF14A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="193761488"/>
+        <c:axId val="193763152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="193761488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="193763152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="193763152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="193761488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Data for project.xlsx]A 05!PivotTable1</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A 05'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'A 05'!$A$4:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'A 05'!$B$4:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A500-4C45-81B7-A0BB5B1F11FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1184620063"/>
+        <c:axId val="1070978351"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1184620063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1070978351"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1070978351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184620063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C189834-BD25-4CC1-8041-E87F9BC9DE88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12DD9151-353D-4E39-9F1C-316065CE9EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2D5AA7-E5A1-4132-A161-D9513DD19A89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0D3D1E-6223-450C-8D48-78135DFFC5F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7C83EB-C590-4A9B-A000-CB6B7FCF95E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="user" refreshedDate="45570.371457754627" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="100" xr:uid="{D34C2AA5-2260-4A6E-8DC1-CFAC8FC1055F}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F101" sheet="Data"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="100"/>
+    </cacheField>
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems count="100">
+        <s v="2016-07"/>
+        <s v="2016-08"/>
+        <s v="2016-09"/>
+        <s v="2016-10"/>
+        <s v="2016-11"/>
+        <s v="2016-12"/>
+        <s v="2017-01"/>
+        <s v="2017-02"/>
+        <s v="2017-03"/>
+        <s v="2017-04"/>
+        <s v="2017-05"/>
+        <s v="2017-06"/>
+        <s v="2017-07"/>
+        <s v="2017-08"/>
+        <s v="2017-09"/>
+        <s v="2017-10"/>
+        <s v="2017-11"/>
+        <s v="2017-12"/>
+        <s v="2018-01"/>
+        <s v="2018-02"/>
+        <s v="2018-03"/>
+        <s v="2018-04"/>
+        <s v="2018-05"/>
+        <s v="2018-06"/>
+        <s v="2018-07"/>
+        <s v="2018-08"/>
+        <s v="2018-09"/>
+        <s v="2018-10"/>
+        <s v="2018-11"/>
+        <s v="2018-12"/>
+        <s v="2019-01"/>
+        <s v="2019-02"/>
+        <s v="2019-03"/>
+        <s v="2019-04"/>
+        <s v="2019-05"/>
+        <s v="2019-06"/>
+        <s v="2019-07"/>
+        <s v="2019-08"/>
+        <s v="2019-09"/>
+        <s v="2019-10"/>
+        <s v="2019-11"/>
+        <s v="2019-12"/>
+        <s v="2020-01"/>
+        <s v="2020-02"/>
+        <s v="2020-03"/>
+        <s v="2020-04"/>
+        <s v="2020-05"/>
+        <s v="2020-06"/>
+        <s v="2020-07"/>
+        <s v="2020-08"/>
+        <s v="2020-09"/>
+        <s v="2020-10"/>
+        <s v="2020-11"/>
+        <s v="2020-12"/>
+        <s v="2021-01"/>
+        <s v="2021-02"/>
+        <s v="2021-03"/>
+        <s v="2021-04"/>
+        <s v="2021-05"/>
+        <s v="2021-06"/>
+        <s v="2021-07"/>
+        <s v="2021-08"/>
+        <s v="2021-09"/>
+        <s v="2021-10"/>
+        <s v="2021-11"/>
+        <s v="2021-12"/>
+        <s v="2022-01"/>
+        <s v="2022-02"/>
+        <s v="2022-03"/>
+        <s v="2022-04"/>
+        <s v="2022-05"/>
+        <s v="2022-06"/>
+        <s v="2022-07"/>
+        <s v="2022-08"/>
+        <s v="2022-09"/>
+        <s v="2022-10"/>
+        <s v="2022-11"/>
+        <s v="2022-12"/>
+        <s v="2023-01"/>
+        <s v="2023-02"/>
+        <s v="2023-03"/>
+        <s v="2023-04"/>
+        <s v="2023-05"/>
+        <s v="2023-06"/>
+        <s v="2023-07"/>
+        <s v="2023-08"/>
+        <s v="2023-09"/>
+        <s v="2023-10"/>
+        <s v="2023-11"/>
+        <s v="2023-12"/>
+        <s v="2024-01"/>
+        <s v="2024-02"/>
+        <s v="2024-03"/>
+        <s v="2024-04"/>
+        <s v="2024-05"/>
+        <s v="2024-06"/>
+        <s v="2024-07"/>
+        <s v="2024-08"/>
+        <s v="2024-09"/>
+        <s v="2024-10"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Inflation Rate (%)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.5" maxValue="27.2" count="100">
+        <n v="2.5"/>
+        <n v="2.7"/>
+        <n v="3"/>
+        <n v="3.2"/>
+        <n v="3.5"/>
+        <n v="3.8"/>
+        <n v="4"/>
+        <n v="4.2"/>
+        <n v="4.5"/>
+        <n v="4.7"/>
+        <n v="5"/>
+        <n v="5.2"/>
+        <n v="5.5"/>
+        <n v="5.7"/>
+        <n v="6"/>
+        <n v="6.2"/>
+        <n v="6.5"/>
+        <n v="6.7"/>
+        <n v="7"/>
+        <n v="7.2"/>
+        <n v="7.5"/>
+        <n v="7.7"/>
+        <n v="8"/>
+        <n v="8.1999999999999993"/>
+        <n v="8.5"/>
+        <n v="8.6999999999999993"/>
+        <n v="9"/>
+        <n v="9.1999999999999993"/>
+        <n v="9.5"/>
+        <n v="9.6999999999999993"/>
+        <n v="10"/>
+        <n v="10.199999999999999"/>
+        <n v="10.5"/>
+        <n v="10.7"/>
+        <n v="11"/>
+        <n v="11.2"/>
+        <n v="11.5"/>
+        <n v="11.7"/>
+        <n v="12"/>
+        <n v="12.2"/>
+        <n v="12.5"/>
+        <n v="12.7"/>
+        <n v="13"/>
+        <n v="13.2"/>
+        <n v="13.5"/>
+        <n v="13.7"/>
+        <n v="14"/>
+        <n v="14.2"/>
+        <n v="14.5"/>
+        <n v="14.7"/>
+        <n v="15"/>
+        <n v="15.2"/>
+        <n v="15.5"/>
+        <n v="15.7"/>
+        <n v="16"/>
+        <n v="16.2"/>
+        <n v="16.5"/>
+        <n v="16.7"/>
+        <n v="17"/>
+        <n v="17.2"/>
+        <n v="17.5"/>
+        <n v="17.7"/>
+        <n v="18"/>
+        <n v="18.2"/>
+        <n v="18.5"/>
+        <n v="18.7"/>
+        <n v="19"/>
+        <n v="19.2"/>
+        <n v="19.5"/>
+        <n v="19.7"/>
+        <n v="20"/>
+        <n v="20.2"/>
+        <n v="20.5"/>
+        <n v="20.7"/>
+        <n v="21"/>
+        <n v="21.2"/>
+        <n v="21.5"/>
+        <n v="21.7"/>
+        <n v="22"/>
+        <n v="22.2"/>
+        <n v="22.5"/>
+        <n v="22.7"/>
+        <n v="23"/>
+        <n v="23.2"/>
+        <n v="23.5"/>
+        <n v="23.7"/>
+        <n v="24"/>
+        <n v="24.2"/>
+        <n v="24.5"/>
+        <n v="24.7"/>
+        <n v="25"/>
+        <n v="25.2"/>
+        <n v="25.5"/>
+        <n v="25.7"/>
+        <n v="26"/>
+        <n v="26.2"/>
+        <n v="26.5"/>
+        <n v="26.7"/>
+        <n v="27"/>
+        <n v="27.2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Consumer Price Index" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-137" maxValue="110" count="100">
+        <n v="110"/>
+        <n v="108"/>
+        <n v="105"/>
+        <n v="103"/>
+        <n v="100"/>
+        <n v="98"/>
+        <n v="95"/>
+        <n v="93"/>
+        <n v="90"/>
+        <n v="88"/>
+        <n v="85"/>
+        <n v="83"/>
+        <n v="80"/>
+        <n v="78"/>
+        <n v="75"/>
+        <n v="73"/>
+        <n v="70"/>
+        <n v="68"/>
+        <n v="65"/>
+        <n v="63"/>
+        <n v="60"/>
+        <n v="58"/>
+        <n v="55"/>
+        <n v="53"/>
+        <n v="50"/>
+        <n v="48"/>
+        <n v="45"/>
+        <n v="43"/>
+        <n v="40"/>
+        <n v="38"/>
+        <n v="35"/>
+        <n v="33"/>
+        <n v="30"/>
+        <n v="28"/>
+        <n v="25"/>
+        <n v="23"/>
+        <n v="20"/>
+        <n v="18"/>
+        <n v="15"/>
+        <n v="13"/>
+        <n v="10"/>
+        <n v="8"/>
+        <n v="5"/>
+        <n v="3"/>
+        <n v="0"/>
+        <n v="-2"/>
+        <n v="-5"/>
+        <n v="-7"/>
+        <n v="-10"/>
+        <n v="-12"/>
+        <n v="-15"/>
+        <n v="-17"/>
+        <n v="-20"/>
+        <n v="-22"/>
+        <n v="-25"/>
+        <n v="-27"/>
+        <n v="-30"/>
+        <n v="-32"/>
+        <n v="-35"/>
+        <n v="-37"/>
+        <n v="-40"/>
+        <n v="-42"/>
+        <n v="-45"/>
+        <n v="-47"/>
+        <n v="-50"/>
+        <n v="-52"/>
+        <n v="-55"/>
+        <n v="-57"/>
+        <n v="-60"/>
+        <n v="-62"/>
+        <n v="-65"/>
+        <n v="-67"/>
+        <n v="-70"/>
+        <n v="-72"/>
+        <n v="-75"/>
+        <n v="-77"/>
+        <n v="-80"/>
+        <n v="-82"/>
+        <n v="-85"/>
+        <n v="-87"/>
+        <n v="-90"/>
+        <n v="-92"/>
+        <n v="-95"/>
+        <n v="-97"/>
+        <n v="-100"/>
+        <n v="-102"/>
+        <n v="-105"/>
+        <n v="-107"/>
+        <n v="-110"/>
+        <n v="-112"/>
+        <n v="-115"/>
+        <n v="-117"/>
+        <n v="-120"/>
+        <n v="-122"/>
+        <n v="-125"/>
+        <n v="-127"/>
+        <n v="-130"/>
+        <n v="-132"/>
+        <n v="-135"/>
+        <n v="-137"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Monthly Spending ($)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3500" maxValue="8450" count="100">
+        <n v="3500"/>
+        <n v="3550"/>
+        <n v="3600"/>
+        <n v="3650"/>
+        <n v="3700"/>
+        <n v="3750"/>
+        <n v="3800"/>
+        <n v="3850"/>
+        <n v="3900"/>
+        <n v="3950"/>
+        <n v="4000"/>
+        <n v="4050"/>
+        <n v="4100"/>
+        <n v="4150"/>
+        <n v="4200"/>
+        <n v="4250"/>
+        <n v="4300"/>
+        <n v="4350"/>
+        <n v="4400"/>
+        <n v="4450"/>
+        <n v="4500"/>
+        <n v="4550"/>
+        <n v="4600"/>
+        <n v="4650"/>
+        <n v="4700"/>
+        <n v="4750"/>
+        <n v="4800"/>
+        <n v="4850"/>
+        <n v="4900"/>
+        <n v="4950"/>
+        <n v="5000"/>
+        <n v="5050"/>
+        <n v="5100"/>
+        <n v="5150"/>
+        <n v="5200"/>
+        <n v="5250"/>
+        <n v="5300"/>
+        <n v="5350"/>
+        <n v="5400"/>
+        <n v="5450"/>
+        <n v="5500"/>
+        <n v="5550"/>
+        <n v="5600"/>
+        <n v="5650"/>
+        <n v="5700"/>
+        <n v="5750"/>
+        <n v="5800"/>
+        <n v="5850"/>
+        <n v="5900"/>
+        <n v="5950"/>
+        <n v="6000"/>
+        <n v="6050"/>
+        <n v="6100"/>
+        <n v="6150"/>
+        <n v="6200"/>
+        <n v="6250"/>
+        <n v="6300"/>
+        <n v="6350"/>
+        <n v="6400"/>
+        <n v="6450"/>
+        <n v="6500"/>
+        <n v="6550"/>
+        <n v="6600"/>
+        <n v="6650"/>
+        <n v="6700"/>
+        <n v="6750"/>
+        <n v="6800"/>
+        <n v="6850"/>
+        <n v="6900"/>
+        <n v="6950"/>
+        <n v="7000"/>
+        <n v="7050"/>
+        <n v="7100"/>
+        <n v="7150"/>
+        <n v="7200"/>
+        <n v="7250"/>
+        <n v="7300"/>
+        <n v="7350"/>
+        <n v="7400"/>
+        <n v="7450"/>
+        <n v="7500"/>
+        <n v="7550"/>
+        <n v="7600"/>
+        <n v="7650"/>
+        <n v="7700"/>
+        <n v="7750"/>
+        <n v="7800"/>
+        <n v="7850"/>
+        <n v="7900"/>
+        <n v="7950"/>
+        <n v="8000"/>
+        <n v="8050"/>
+        <n v="8100"/>
+        <n v="8150"/>
+        <n v="8200"/>
+        <n v="8250"/>
+        <n v="8300"/>
+        <n v="8350"/>
+        <n v="8400"/>
+        <n v="8450"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Savings ($)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="500"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="user" refreshedDate="45570.384306134256" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D8DA662B-470C-4D6D-ACF3-349942E18778}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="2">
+    <cacheField name="[Range].[Date].[Date]" caption="Date" numFmtId="0" hierarchy="1" level="1">
+      <sharedItems count="9">
+        <s v="2016-07"/>
+        <s v="2017-07"/>
+        <s v="2018-07"/>
+        <s v="2019-07"/>
+        <s v="2020-07"/>
+        <s v="2021-07"/>
+        <s v="2022-07"/>
+        <s v="2023-07"/>
+        <s v="2024-07"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Min of Inflation Rate (%)]" caption="Min of Inflation Rate (%)" numFmtId="0" hierarchy="9" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="10">
+    <cacheHierarchy uniqueName="[Range].[ID]" caption="ID" attribute="1" defaultMemberUniqueName="[Range].[ID].[All]" allUniqueName="[Range].[ID].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Date]" caption="Date" attribute="1" defaultMemberUniqueName="[Range].[Date].[All]" allUniqueName="[Range].[Date].[All]" dimensionUniqueName="[Range]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range].[Inflation Rate (%)]" caption="Inflation Rate (%)" attribute="1" defaultMemberUniqueName="[Range].[Inflation Rate (%)].[All]" allUniqueName="[Range].[Inflation Rate (%)].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Consumer Price Index]" caption="Consumer Price Index" attribute="1" defaultMemberUniqueName="[Range].[Consumer Price Index].[All]" allUniqueName="[Range].[Consumer Price Index].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Monthly Spending ($)]" caption="Monthly Spending ($)" attribute="1" defaultMemberUniqueName="[Range].[Monthly Spending ($)].[All]" allUniqueName="[Range].[Monthly Spending ($)].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Savings ($)]" caption="Savings ($)" attribute="1" defaultMemberUniqueName="[Range].[Savings ($)].[All]" allUniqueName="[Range].[Savings ($)].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Inflation Rate (%)]" caption="Sum of Inflation Rate (%)" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Min of Inflation Rate (%)]" caption="Min of Inflation Rate (%)" measure="1" displayFolder="" measureGroup="Range" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Range" uniqueName="[Range]" caption="Range"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Range" caption="Range"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="100">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="480"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="460"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="440"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="420"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="380"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="360"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="340"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="320"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <n v="280"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <n v="260"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <n v="240"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <n v="220"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="180"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <n v="160"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+    <n v="140"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="25"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="26"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="27"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="28"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="29"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="30"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="31"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="32"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="33"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="34"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="35"/>
+    <n v="75"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="36"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="37"/>
+    <n v="85"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="38"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="39"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="40"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <x v="41"/>
+    <x v="41"/>
+    <x v="41"/>
+    <x v="41"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="42"/>
+    <x v="42"/>
+    <x v="42"/>
+    <x v="42"/>
+    <n v="110"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="43"/>
+    <x v="43"/>
+    <x v="43"/>
+    <x v="43"/>
+    <n v="115"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <x v="44"/>
+    <x v="44"/>
+    <x v="44"/>
+    <x v="44"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <x v="45"/>
+    <x v="45"/>
+    <x v="45"/>
+    <x v="45"/>
+    <n v="125"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <x v="46"/>
+    <x v="46"/>
+    <x v="46"/>
+    <x v="46"/>
+    <n v="130"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <x v="47"/>
+    <x v="47"/>
+    <x v="47"/>
+    <x v="47"/>
+    <n v="135"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <x v="48"/>
+    <x v="48"/>
+    <x v="48"/>
+    <x v="48"/>
+    <n v="140"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="49"/>
+    <x v="49"/>
+    <x v="49"/>
+    <x v="49"/>
+    <n v="145"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <x v="50"/>
+    <x v="50"/>
+    <x v="50"/>
+    <x v="50"/>
+    <n v="150"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <x v="51"/>
+    <x v="51"/>
+    <x v="51"/>
+    <x v="51"/>
+    <n v="155"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="52"/>
+    <n v="160"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <x v="53"/>
+    <x v="53"/>
+    <x v="53"/>
+    <x v="53"/>
+    <n v="165"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="54"/>
+    <x v="54"/>
+    <x v="54"/>
+    <x v="54"/>
+    <n v="170"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <x v="55"/>
+    <x v="55"/>
+    <x v="55"/>
+    <x v="55"/>
+    <n v="175"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <x v="56"/>
+    <x v="56"/>
+    <x v="56"/>
+    <x v="56"/>
+    <n v="180"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <x v="57"/>
+    <x v="57"/>
+    <x v="57"/>
+    <x v="57"/>
+    <n v="185"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <x v="58"/>
+    <x v="58"/>
+    <x v="58"/>
+    <x v="58"/>
+    <n v="190"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <x v="59"/>
+    <x v="59"/>
+    <x v="59"/>
+    <x v="59"/>
+    <n v="195"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <x v="60"/>
+    <x v="60"/>
+    <x v="60"/>
+    <x v="60"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <x v="61"/>
+    <x v="61"/>
+    <x v="61"/>
+    <x v="61"/>
+    <n v="205"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <x v="62"/>
+    <x v="62"/>
+    <x v="62"/>
+    <x v="62"/>
+    <n v="210"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <x v="63"/>
+    <x v="63"/>
+    <x v="63"/>
+    <x v="63"/>
+    <n v="215"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <x v="64"/>
+    <x v="64"/>
+    <x v="64"/>
+    <x v="64"/>
+    <n v="220"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <x v="65"/>
+    <x v="65"/>
+    <x v="65"/>
+    <x v="65"/>
+    <n v="225"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <x v="66"/>
+    <x v="66"/>
+    <x v="66"/>
+    <x v="66"/>
+    <n v="230"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <x v="67"/>
+    <x v="67"/>
+    <x v="67"/>
+    <x v="67"/>
+    <n v="235"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <x v="68"/>
+    <x v="68"/>
+    <x v="68"/>
+    <x v="68"/>
+    <n v="240"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="69"/>
+    <x v="69"/>
+    <x v="69"/>
+    <x v="69"/>
+    <n v="245"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <x v="70"/>
+    <x v="70"/>
+    <x v="70"/>
+    <x v="70"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="71"/>
+    <x v="71"/>
+    <x v="71"/>
+    <x v="71"/>
+    <n v="255"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <x v="72"/>
+    <x v="72"/>
+    <x v="72"/>
+    <x v="72"/>
+    <n v="260"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <x v="73"/>
+    <x v="73"/>
+    <x v="73"/>
+    <x v="73"/>
+    <n v="265"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="74"/>
+    <x v="74"/>
+    <x v="74"/>
+    <x v="74"/>
+    <n v="270"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <x v="75"/>
+    <x v="75"/>
+    <x v="75"/>
+    <x v="75"/>
+    <n v="275"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <x v="76"/>
+    <x v="76"/>
+    <x v="76"/>
+    <x v="76"/>
+    <n v="280"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <x v="77"/>
+    <x v="77"/>
+    <x v="77"/>
+    <x v="77"/>
+    <n v="285"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <x v="78"/>
+    <x v="78"/>
+    <x v="78"/>
+    <x v="78"/>
+    <n v="290"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <x v="79"/>
+    <x v="79"/>
+    <x v="79"/>
+    <x v="79"/>
+    <n v="295"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <x v="80"/>
+    <x v="80"/>
+    <x v="80"/>
+    <x v="80"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <x v="81"/>
+    <x v="81"/>
+    <x v="81"/>
+    <x v="81"/>
+    <n v="305"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <x v="82"/>
+    <x v="82"/>
+    <x v="82"/>
+    <x v="82"/>
+    <n v="310"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <x v="83"/>
+    <x v="83"/>
+    <x v="83"/>
+    <x v="83"/>
+    <n v="315"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <x v="84"/>
+    <x v="84"/>
+    <x v="84"/>
+    <x v="84"/>
+    <n v="320"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <x v="85"/>
+    <x v="85"/>
+    <x v="85"/>
+    <x v="85"/>
+    <n v="325"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <x v="86"/>
+    <x v="86"/>
+    <x v="86"/>
+    <x v="86"/>
+    <n v="330"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <x v="87"/>
+    <x v="87"/>
+    <x v="87"/>
+    <x v="87"/>
+    <n v="335"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <x v="88"/>
+    <x v="88"/>
+    <x v="88"/>
+    <x v="88"/>
+    <n v="340"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <x v="89"/>
+    <x v="89"/>
+    <x v="89"/>
+    <x v="89"/>
+    <n v="345"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <x v="90"/>
+    <x v="90"/>
+    <x v="90"/>
+    <x v="90"/>
+    <n v="350"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <x v="91"/>
+    <x v="91"/>
+    <x v="91"/>
+    <x v="91"/>
+    <n v="355"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <x v="92"/>
+    <x v="92"/>
+    <x v="92"/>
+    <x v="92"/>
+    <n v="360"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <x v="93"/>
+    <x v="93"/>
+    <x v="93"/>
+    <x v="93"/>
+    <n v="365"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <x v="94"/>
+    <x v="94"/>
+    <x v="94"/>
+    <x v="94"/>
+    <n v="370"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <x v="95"/>
+    <x v="95"/>
+    <x v="95"/>
+    <x v="95"/>
+    <n v="375"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <x v="96"/>
+    <x v="96"/>
+    <x v="96"/>
+    <x v="96"/>
+    <n v="380"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <x v="97"/>
+    <x v="97"/>
+    <x v="97"/>
+    <x v="97"/>
+    <n v="385"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <x v="98"/>
+    <x v="98"/>
+    <x v="98"/>
+    <x v="98"/>
+    <n v="390"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <x v="99"/>
+    <x v="99"/>
+    <x v="99"/>
+    <x v="99"/>
+    <n v="395"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9680DDF5-F058-453B-8644-8058CCEF1E2A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="101">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="23"/>
+        <item x="24"/>
+        <item h="1" x="25"/>
+        <item h="1" x="26"/>
+        <item h="1" x="27"/>
+        <item h="1" x="28"/>
+        <item h="1" x="29"/>
+        <item h="1" x="30"/>
+        <item h="1" x="31"/>
+        <item h="1" x="32"/>
+        <item h="1" x="33"/>
+        <item h="1" x="34"/>
+        <item h="1" x="35"/>
+        <item x="36"/>
+        <item h="1" x="37"/>
+        <item h="1" x="38"/>
+        <item h="1" x="39"/>
+        <item h="1" x="40"/>
+        <item h="1" x="41"/>
+        <item h="1" x="42"/>
+        <item h="1" x="43"/>
+        <item h="1" x="44"/>
+        <item h="1" x="45"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item h="1" x="59"/>
+        <item x="60"/>
+        <item h="1" x="61"/>
+        <item h="1" x="62"/>
+        <item h="1" x="63"/>
+        <item h="1" x="64"/>
+        <item h="1" x="65"/>
+        <item h="1" x="66"/>
+        <item h="1" x="67"/>
+        <item h="1" x="68"/>
+        <item h="1" x="69"/>
+        <item h="1" x="70"/>
+        <item h="1" x="71"/>
+        <item x="72"/>
+        <item h="1" x="73"/>
+        <item h="1" x="74"/>
+        <item h="1" x="75"/>
+        <item h="1" x="76"/>
+        <item h="1" x="77"/>
+        <item h="1" x="78"/>
+        <item h="1" x="79"/>
+        <item h="1" x="80"/>
+        <item h="1" x="81"/>
+        <item h="1" x="82"/>
+        <item h="1" x="83"/>
+        <item x="84"/>
+        <item h="1" x="85"/>
+        <item h="1" x="86"/>
+        <item h="1" x="87"/>
+        <item h="1" x="88"/>
+        <item h="1" x="89"/>
+        <item h="1" x="90"/>
+        <item h="1" x="91"/>
+        <item h="1" x="92"/>
+        <item h="1" x="93"/>
+        <item h="1" x="94"/>
+        <item h="1" x="95"/>
+        <item x="96"/>
+        <item h="1" x="97"/>
+        <item h="1" x="98"/>
+        <item h="1" x="99"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Max of Inflation Rate (%)" fld="2" subtotal="max" baseField="1" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="8" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E770935-4BCC-499F-91E2-F820E92D0D33}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="9">
+        <item s="1" x="0"/>
+        <item s="1" x="1"/>
+        <item s="1" x="2"/>
+        <item s="1" x="3"/>
+        <item s="1" x="4"/>
+        <item s="1" x="5"/>
+        <item s="1" x="6"/>
+        <item s="1" x="7"/>
+        <item s="1" x="8"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Min of Inflation Rate (%)" fld="1" subtotal="min" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="10">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Min of Inflation Rate (%)"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="1"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Sheet1!$A$1:$F$101">
+        <x15:activeTabTopLevelEntity name="[Range]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB060ABA-A8B1-483D-9071-873737323DC5}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="101">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item x="22"/>
+        <item h="1" x="23"/>
+        <item h="1" x="24"/>
+        <item h="1" x="25"/>
+        <item x="26"/>
+        <item h="1" x="27"/>
+        <item h="1" x="28"/>
+        <item h="1" x="29"/>
+        <item x="30"/>
+        <item h="1" x="31"/>
+        <item h="1" x="32"/>
+        <item h="1" x="33"/>
+        <item x="34"/>
+        <item h="1" x="35"/>
+        <item h="1" x="36"/>
+        <item h="1" x="37"/>
+        <item x="38"/>
+        <item h="1" x="39"/>
+        <item h="1" x="40"/>
+        <item h="1" x="41"/>
+        <item x="42"/>
+        <item h="1" x="43"/>
+        <item h="1" x="44"/>
+        <item h="1" x="45"/>
+        <item x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item h="1" x="59"/>
+        <item h="1" x="60"/>
+        <item h="1" x="61"/>
+        <item h="1" x="62"/>
+        <item h="1" x="63"/>
+        <item h="1" x="64"/>
+        <item h="1" x="65"/>
+        <item h="1" x="66"/>
+        <item h="1" x="67"/>
+        <item h="1" x="68"/>
+        <item h="1" x="69"/>
+        <item h="1" x="70"/>
+        <item h="1" x="71"/>
+        <item h="1" x="72"/>
+        <item h="1" x="73"/>
+        <item h="1" x="74"/>
+        <item h="1" x="75"/>
+        <item h="1" x="76"/>
+        <item h="1" x="77"/>
+        <item h="1" x="78"/>
+        <item h="1" x="79"/>
+        <item h="1" x="80"/>
+        <item h="1" x="81"/>
+        <item h="1" x="82"/>
+        <item h="1" x="83"/>
+        <item h="1" x="84"/>
+        <item h="1" x="85"/>
+        <item h="1" x="86"/>
+        <item h="1" x="87"/>
+        <item h="1" x="88"/>
+        <item h="1" x="89"/>
+        <item h="1" x="90"/>
+        <item h="1" x="91"/>
+        <item h="1" x="92"/>
+        <item h="1" x="93"/>
+        <item h="1" x="94"/>
+        <item h="1" x="95"/>
+        <item h="1" x="96"/>
+        <item h="1" x="97"/>
+        <item h="1" x="98"/>
+        <item h="1" x="99"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="101">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Monthly Spending ($)" fld="4" subtotal="average" baseField="2" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36E060D7-5D82-4B17-B108-002CADBCA5A2}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:C15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="101">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item x="22"/>
+        <item h="1" x="23"/>
+        <item h="1" x="24"/>
+        <item h="1" x="25"/>
+        <item x="26"/>
+        <item h="1" x="27"/>
+        <item h="1" x="28"/>
+        <item h="1" x="29"/>
+        <item x="30"/>
+        <item h="1" x="31"/>
+        <item h="1" x="32"/>
+        <item h="1" x="33"/>
+        <item x="34"/>
+        <item h="1" x="35"/>
+        <item h="1" x="36"/>
+        <item h="1" x="37"/>
+        <item x="38"/>
+        <item h="1" x="39"/>
+        <item h="1" x="40"/>
+        <item h="1" x="41"/>
+        <item x="42"/>
+        <item h="1" x="43"/>
+        <item h="1" x="44"/>
+        <item h="1" x="45"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item h="1" x="59"/>
+        <item h="1" x="60"/>
+        <item h="1" x="61"/>
+        <item h="1" x="62"/>
+        <item h="1" x="63"/>
+        <item h="1" x="64"/>
+        <item h="1" x="65"/>
+        <item h="1" x="66"/>
+        <item h="1" x="67"/>
+        <item h="1" x="68"/>
+        <item h="1" x="69"/>
+        <item h="1" x="70"/>
+        <item h="1" x="71"/>
+        <item h="1" x="72"/>
+        <item h="1" x="73"/>
+        <item h="1" x="74"/>
+        <item h="1" x="75"/>
+        <item h="1" x="76"/>
+        <item h="1" x="77"/>
+        <item h="1" x="78"/>
+        <item h="1" x="79"/>
+        <item h="1" x="80"/>
+        <item h="1" x="81"/>
+        <item h="1" x="82"/>
+        <item h="1" x="83"/>
+        <item h="1" x="84"/>
+        <item h="1" x="85"/>
+        <item h="1" x="86"/>
+        <item h="1" x="87"/>
+        <item h="1" x="88"/>
+        <item h="1" x="89"/>
+        <item h="1" x="90"/>
+        <item h="1" x="91"/>
+        <item h="1" x="92"/>
+        <item h="1" x="93"/>
+        <item h="1" x="94"/>
+        <item h="1" x="95"/>
+        <item h="1" x="96"/>
+        <item h="1" x="97"/>
+        <item h="1" x="98"/>
+        <item h="1" x="99"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="101">
+        <item x="99"/>
+        <item x="98"/>
+        <item x="97"/>
+        <item x="96"/>
+        <item x="95"/>
+        <item x="94"/>
+        <item x="93"/>
+        <item x="92"/>
+        <item x="91"/>
+        <item x="90"/>
+        <item x="89"/>
+        <item x="88"/>
+        <item x="87"/>
+        <item x="86"/>
+        <item x="85"/>
+        <item x="84"/>
+        <item x="83"/>
+        <item x="82"/>
+        <item x="81"/>
+        <item x="80"/>
+        <item x="79"/>
+        <item x="78"/>
+        <item x="77"/>
+        <item x="76"/>
+        <item x="75"/>
+        <item x="74"/>
+        <item x="73"/>
+        <item x="72"/>
+        <item x="71"/>
+        <item x="70"/>
+        <item x="69"/>
+        <item x="68"/>
+        <item x="67"/>
+        <item x="66"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="63"/>
+        <item x="62"/>
+        <item x="61"/>
+        <item x="60"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="57"/>
+        <item x="56"/>
+        <item x="55"/>
+        <item x="54"/>
+        <item x="53"/>
+        <item x="52"/>
+        <item x="51"/>
+        <item x="50"/>
+        <item x="49"/>
+        <item x="48"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of Savings ($)" fld="5" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Sum of Consumer Price Index" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C690A9E4-534C-46B3-BCE6-D6C6D4297353}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="101">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Monthly Spending ($)" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="3" type="captionGreaterThanOrEqual" evalOrder="-1" id="1" stringValue1="80">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="greaterThanOrEqual" val="80"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -702,11 +8464,690 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7041729-1DD2-4B3F-9277-4061FC717827}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A3:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="1">
+        <v>26.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13B0427-6C99-439C-8CB7-03A24957C8B1}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A3:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECB142E-24DE-44C7-8C11-F4874ACA8189}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A3:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4B7DE5-9A8E-4A34-8F11-BC1D54DE4453}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A3:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="17" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="61" width="4" bestFit="1" customWidth="1"/>
+    <col min="62" max="80" width="3" bestFit="1" customWidth="1"/>
+    <col min="81" max="101" width="4" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>460</v>
+      </c>
+      <c r="C4" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>380</v>
+      </c>
+      <c r="C5" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>300</v>
+      </c>
+      <c r="C6" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>220</v>
+      </c>
+      <c r="C7" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>140</v>
+      </c>
+      <c r="C8" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>70</v>
+      </c>
+      <c r="C12" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>90</v>
+      </c>
+      <c r="C13" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>110</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="1">
+        <v>173.63636363636363</v>
+      </c>
+      <c r="C15" s="1">
+        <v>605</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41B36DA-A016-4642-896F-355FC2F6A927}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A3:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>110</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>108</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>105</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>103</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>98</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>95</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>93</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>90</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>88</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>85</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>83</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>80</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="1">
+        <v>49400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6C6C1E-24A6-4327-9266-BDED30BC9172}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
